--- a/NhapHangV2.API/Template/TransportationOrderTemplate.xlsx
+++ b/NhapHangV2.API/Template/TransportationOrderTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\NhapHangCore\NhapHangV2.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29340DD2-24AD-463F-93BE-ACB44A98955A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4EB073-B1BA-4090-8490-0EAD9FF6EDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{666E7FE4-7415-4F78-90CE-CF0D4192FD3B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{666E7FE4-7415-4F78-90CE-CF0D4192FD3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -111,6 +103,12 @@
   </si>
   <si>
     <t>[[%Field:IsPackedPrice%]]</t>
+  </si>
+  <si>
+    <t>TỔNG TIỀN</t>
+  </si>
+  <si>
+    <t>[[%Field:TotalPriceVND%]]</t>
   </si>
 </sst>
 </file>
@@ -159,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +169,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE2F6F-65C9-4D9F-BB18-400ED38C70D8}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -502,14 +506,14 @@
     <col min="5" max="5" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="29.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="1"/>
+    <col min="8" max="11" width="29.88671875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -531,26 +535,29 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -572,26 +579,30 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NhapHangV2.API/Template/TransportationOrderTemplate.xlsx
+++ b/NhapHangV2.API/Template/TransportationOrderTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mona\nhaphangv2.monamedia.net\NhapHangV2.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4EB073-B1BA-4090-8490-0EAD9FF6EDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDDFA2E-4B74-4092-BE5C-6DA6C148D8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{666E7FE4-7415-4F78-90CE-CF0D4192FD3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{666E7FE4-7415-4F78-90CE-CF0D4192FD3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -109,6 +109,24 @@
   </si>
   <si>
     <t>[[%Field:TotalPriceVND%]]</t>
+  </si>
+  <si>
+    <t>PHÍ VẬN CHUYỂN</t>
+  </si>
+  <si>
+    <t>PHÍ COD TỆ</t>
+  </si>
+  <si>
+    <t>PHÍ COD VNĐ</t>
+  </si>
+  <si>
+    <t>[[%Field:DeliveryPrice%]]</t>
+  </si>
+  <si>
+    <t>[[%Field:CODFee%]]</t>
+  </si>
+  <si>
+    <t>[[%Field:CODFeeTQ%]]</t>
   </si>
 </sst>
 </file>
@@ -491,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EE2F6F-65C9-4D9F-BB18-400ED38C70D8}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -506,14 +524,14 @@
     <col min="5" max="5" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="29.88671875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="1"/>
+    <col min="8" max="14" width="29.88671875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -547,17 +565,26 @@
       <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -591,13 +618,22 @@
       <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
